--- a/May'21/17.05.2021/Daily Sales Info.xlsx
+++ b/May'21/17.05.2021/Daily Sales Info.xlsx
@@ -26697,8 +26697,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
